--- a/data/trans_orig/SENTADO_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SENTADO_TIEMPO-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se está sentado</t>
+          <t>Nº medio de minutos/día en los que se está sentado (tasa de respuesta: 99,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>288,97</t>
+          <t>286,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>298,66</t>
+          <t>297,61</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>273,1; 305,03</t>
+          <t>272,11; 302,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>287,59; 310,91</t>
+          <t>286,35; 309,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>346,74</t>
+          <t>344,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>356,2</t>
+          <t>355,26</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>325,44; 365,25</t>
+          <t>326,72; 365,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>343,07; 370,01</t>
+          <t>341,66; 367,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>303,92</t>
+          <t>303,67</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>300,63</t>
+          <t>300,3</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>302,22</t>
+          <t>301,93</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>296,79; 311,16</t>
+          <t>296,19; 310,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>293,27; 308,21</t>
+          <t>293,07; 307,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>297,69; 307,7</t>
+          <t>297,19; 307,78</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">

--- a/data/trans_orig/SENTADO_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SENTADO_TIEMPO-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>381,85</t>
+          <t>348,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>408,71</t>
+          <t>420,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>394,76</t>
+          <t>384,7</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>348,11; 420,98</t>
+          <t>305,68; 383,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>316,55; 397,04</t>
+          <t>315,33; 393,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>358,99; 422,7</t>
+          <t>354,16; 419,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>375,06; 438,59</t>
+          <t>384,72; 462,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>354,78; 431,79</t>
+          <t>357,3; 428,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>345,02; 412,0</t>
+          <t>344,28; 410,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>372,39; 420,73</t>
+          <t>355,14; 409,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>340,43; 399,16</t>
+          <t>343,03; 401,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>361,67; 405,67</t>
+          <t>360,07; 407,4</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>352,38</t>
+          <t>330,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>350,88</t>
+          <t>326,13</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>351,59</t>
+          <t>328,24</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>319,42; 385,16</t>
+          <t>296,11; 365,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>322,96; 385,0</t>
+          <t>326,94; 385,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>343,3; 394,68</t>
+          <t>343,55; 391,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>314,72; 381,99</t>
+          <t>292,61; 362,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>152,07; 346,23</t>
+          <t>157,64; 346,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>304,69; 363,51</t>
+          <t>305,46; 361,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>327,11; 375,35</t>
+          <t>305,8; 354,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>206,08; 351,66</t>
+          <t>220,24; 352,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>329,52; 369,35</t>
+          <t>328,76; 368,87</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>311,76</t>
+          <t>311,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>292,36</t>
+          <t>288,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>301,64</t>
+          <t>300,2</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>288,71; 337,07</t>
+          <t>289,66; 337,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>322,75; 371,01</t>
+          <t>320,71; 370,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>317,78; 374,42</t>
+          <t>316,54; 373,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>272,56; 314,94</t>
+          <t>268,46; 310,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>287,34; 321,74</t>
+          <t>289,07; 322,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>308,56; 361,62</t>
+          <t>309,43; 362,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>287,0; 318,05</t>
+          <t>284,5; 318,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>310,22; 339,19</t>
+          <t>308,69; 339,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>321,26; 359,27</t>
+          <t>320,71; 359,19</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>326,28</t>
+          <t>327,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>306,19</t>
+          <t>300,01</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>316,13</t>
+          <t>313,56</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>306,43; 345,61</t>
+          <t>304,98; 348,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>322,11; 358,31</t>
+          <t>323,78; 358,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>293,1; 353,17</t>
+          <t>297,05; 355,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>289,38; 325,54</t>
+          <t>283,54; 317,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>300,49; 329,83</t>
+          <t>298,62; 330,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>305,87; 362,18</t>
+          <t>306,07; 360,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>302,42; 329,65</t>
+          <t>300,07; 327,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>318,88; 348,11</t>
+          <t>318,47; 348,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>311,02; 350,2</t>
+          <t>310,74; 350,65</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>345,21</t>
+          <t>326,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>313,93</t>
+          <t>300,98</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>328,14</t>
+          <t>313,44</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>325,8; 366,67</t>
+          <t>308,94; 348,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>336,14; 374,93</t>
+          <t>337,87; 375,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>299,18; 356,25</t>
+          <t>299,83; 352,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>297,07; 332,01</t>
+          <t>286,14; 318,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>301,45; 331,99</t>
+          <t>301,39; 331,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>302,65; 349,11</t>
+          <t>301,39; 347,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>314,75; 340,03</t>
+          <t>300,86; 325,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>323,17; 346,87</t>
+          <t>322,55; 349,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>308,02; 343,3</t>
+          <t>308,66; 344,5</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>334,74</t>
+          <t>321,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>321,11</t>
+          <t>320,48</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>327,5</t>
+          <t>321,14</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>312,56; 363,41</t>
+          <t>302,31; 344,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>339,7; 377,18</t>
+          <t>339,41; 376,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>272,14; 333,83</t>
+          <t>270,79; 328,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>303,48; 340,9</t>
+          <t>301,77; 340,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>159,41; 337,23</t>
+          <t>159,06; 335,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>233,47; 279,95</t>
+          <t>232,55; 278,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>312,58; 343,39</t>
+          <t>307,65; 335,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>180,4; 347,4</t>
+          <t>181,64; 347,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>257,13; 291,23</t>
+          <t>255,68; 292,24</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>392,73</t>
+          <t>397,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>437,76</t>
+          <t>435,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>420,38</t>
+          <t>421,17</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>369,22; 421,57</t>
+          <t>370,05; 427,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>390,65; 440,49</t>
+          <t>391,9; 441,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>295,81; 354,54</t>
+          <t>295,48; 356,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>413,09; 461,85</t>
+          <t>410,34; 464,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>422,4; 465,87</t>
+          <t>421,76; 466,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>318,27; 394,59</t>
+          <t>319,99; 395,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>404,51; 439,94</t>
+          <t>401,56; 442,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>415,4; 448,63</t>
+          <t>416,86; 450,5</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>317,75; 366,96</t>
+          <t>316,56; 366,37</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>345,13</t>
+          <t>333,65</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>343,59</t>
+          <t>335,75</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>344,3</t>
+          <t>334,75</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>336,56; 354,69</t>
+          <t>323,58; 343,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>346,24; 363,61</t>
+          <t>345,07; 362,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>330,37; 352,41</t>
+          <t>329,97; 352,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>334,22; 352,59</t>
+          <t>326,88; 345,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>255,47; 338,69</t>
+          <t>250,27; 339,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>317,88; 339,35</t>
+          <t>316,87; 339,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>338,11; 351,2</t>
+          <t>328,26; 342,34</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>293,43; 347,29</t>
+          <t>291,01; 346,84</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>327,54; 342,15</t>
+          <t>327,12; 342,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SENTADO_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SENTADO_TIEMPO-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>337,39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>389,05</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>311,17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>348,11</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>353,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>311,17</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>389,05</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>374,93</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>376,16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>335,37</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>420,18</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>389,08</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>335,37</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>376,16</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>355,63</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>382,78</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>323,11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>384,7</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>369,32</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>323,11</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>382,78</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>306,7; 369,38</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>354,16; 419,61</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>289,47; 333,85</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>305,68; 383,91</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>315,33; 393,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>289,47; 333,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>354,16; 419,61</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>341,97; 407,1</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>344,28; 410,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>312,0; 358,1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>384,72; 462,86</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>357,3; 428,58</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>312,0; 358,1</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>344,28; 410,0</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>330,81; 380,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>360,07; 407,4</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>307,19; 339,06</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>355,14; 409,85</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>343,03; 401,55</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>307,19; 339,06</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>360,07; 407,4</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>345,0</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>367,58</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>304,37</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>330,35</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>354,5</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>304,37</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>367,58</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>328,52</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>331,3</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>281,15</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>326,13</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>271,76</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>281,15</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>331,3</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>336,4</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>349,13</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>291,96</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>328,24</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>305,69</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>291,96</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>349,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>317,2; 373,64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>343,55; 391,64</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>284,19; 327,39</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>296,11; 365,06</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>326,94; 385,01</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>284,19; 327,39</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>343,55; 391,64</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>307,1; 354,41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>305,46; 361,01</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>258,36; 309,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>292,61; 362,4</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>157,64; 346,81</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>258,36; 309,64</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>305,46; 361,01</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>317,66; 353,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>328,76; 368,87</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>277,58; 309,49</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>305,8; 354,58</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>220,24; 352,56</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>277,58; 309,49</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>328,76; 368,87</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>337,19</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>345,51</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>292,84</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>311,81</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>344,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>297,11</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>335,36</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>292,84</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>345,51</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>288,36</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>304,13</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>316,9</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>340,51</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>292,84</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>335,36</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>300,2</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>323,82</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>292,84</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>340,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>315,33; 360,63</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>316,54; 373,32</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>275,15; 314,64</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>289,66; 337,14</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>320,71; 370,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>275,15; 314,64</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>316,54; 373,32</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>282,03; 313,97</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>309,43; 362,07</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>274,28; 313,81</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>268,46; 310,33</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>289,07; 322,65</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>274,28; 313,81</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>309,43; 362,07</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>303,06; 331,7</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>320,71; 359,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>280,45; 307,91</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>284,5; 318,33</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>308,69; 339,13</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>280,45; 307,91</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>320,71; 359,19</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>328,09</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>327,66</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>291,38</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>327,05</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>343,71</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>291,38</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>327,66</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>314,35</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>334,04</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>282,55</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>300,01</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>315,16</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>282,55</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>334,04</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>321,06</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>330,92</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>287,05</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>313,56</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>332,79</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>287,05</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>330,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>310,78; 345,82</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>297,05; 355,29</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>275,15; 307,72</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>304,98; 348,42</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>323,78; 358,64</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>275,15; 307,72</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>297,05; 355,29</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>301,07; 328,54</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>306,07; 360,93</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>268,12; 300,4</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>283,54; 317,76</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>298,62; 330,38</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>268,12; 300,4</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>306,07; 360,93</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>309,97; 332,46</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>310,74; 350,65</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>276,49; 298,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>300,07; 327,8</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>318,47; 348,91</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>276,49; 298,46</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>310,74; 350,65</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>353,66</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>325,85</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>308,9</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>326,93</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>355,53</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>308,9</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>325,85</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>313,68</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>325,15</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>286,89</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>300,98</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>315,6</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>286,89</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>325,15</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>333,46</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>325,47</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>297,61</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>313,44</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>335,73</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>297,61</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>325,47</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>335,33; 373,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>299,83; 352,67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>290,81; 325,76</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>308,94; 348,27</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>337,87; 375,95</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>290,81; 325,76</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>299,83; 352,67</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>299,13; 328,55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>301,39; 347,98</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>272,11; 302,75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>286,14; 318,92</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>301,39; 331,59</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>272,11; 302,75</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>301,39; 347,98</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>321,7; 346,22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>308,66; 344,5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>286,35; 309,34</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>300,86; 325,64</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>322,55; 349,16</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>286,35; 309,34</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>308,66; 344,5</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>355,15</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>297,16</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>291,55</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>321,91</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>357,82</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>291,55</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>297,16</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>333,1</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>253,46</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>275,29</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>320,48</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>231,13</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>275,29</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>253,46</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>343,22</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>273,22</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>283,3</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>321,14</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>269,8</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>283,3</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>273,22</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>336,9; 373,3</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>270,79; 328,76</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>278,33; 309,61</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>302,31; 344,02</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>339,41; 376,18</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>278,33; 309,61</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>270,79; 328,76</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>316,69; 349,17</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>232,55; 278,91</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>261,45; 289,06</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>301,77; 340,77</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>159,06; 335,94</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>261,45; 289,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>232,55; 278,91</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>331,67; 355,22</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>255,68; 292,24</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>274,07; 295,83</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>307,65; 335,7</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>181,64; 347,9</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>274,07; 295,83</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>255,68; 292,24</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>412,85</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>323,53</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>344,39</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>397,66</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>414,97</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>344,39</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>323,53</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>445,39</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>352,13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>362,66</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>435,83</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>444,07</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>362,66</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>352,13</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>432,57</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>339,39</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>355,26</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>421,17</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>432,55</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>355,26</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>339,39</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>390,59; 439,12</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>295,48; 356,21</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>326,72; 365,0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>370,05; 427,45</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>391,9; 441,67</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>326,72; 365,0</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>295,48; 356,21</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>423,15; 468,42</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>319,99; 395,23</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>346,04; 382,82</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>410,34; 464,66</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>421,76; 466,93</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>346,04; 382,82</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>319,99; 395,23</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>416,66; 451,06</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>316,56; 366,37</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>341,66; 367,01</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>401,56; 442,38</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>416,86; 450,5</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>341,66; 367,01</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>316,56; 366,37</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>347,51</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>341,08</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>303,67</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>333,65</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>354,39</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>303,67</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>341,08</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>336,73</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>328,42</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>300,3</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>335,75</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>308,47</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>300,3</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>328,42</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>341,89</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>334,52</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>301,93</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>334,75</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>330,52</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>301,93</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>334,52</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>338,13; 356,0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>329,97; 352,56</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>296,19; 310,68</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>323,58; 343,75</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>345,07; 362,77</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>296,19; 310,68</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>329,97; 352,56</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>329,51; 344,19</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>316,87; 339,78</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>293,07; 307,54</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>326,88; 345,13</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>250,27; 339,56</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>293,07; 307,54</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>316,87; 339,78</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>335,87; 347,11</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>327,12; 342,25</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>297,19; 307,78</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>328,26; 342,34</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>291,01; 346,84</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>297,19; 307,78</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>327,12; 342,25</t>
         </is>
       </c>
     </row>
